--- a/jpcore-r4/feature/swg2-DiagnosticReportRadiologyCodeの指定/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/feature/swg2-DiagnosticReportRadiologyCodeの指定/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11626" uniqueCount="1252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11626" uniqueCount="1247">
   <si>
     <t>Property</t>
   </si>
@@ -1267,7 +1267,7 @@
   </si>
   <si>
     <t>参照されるPatientが型として示される。
-一般的には参照の対象として予定される型。もし、Reference.typeとReference.referenceがともに指定されていて、Reference.referenceがFHIRのURLであればどちらも一致させるべきである(SHALL)。
+一般的には参照の対象として予定される型。もし、Reference.typeとReference.referenceがともに指定されていて、Reference.referenceがFHIRのURLであればどちらも一致させなければならない(SHALL)。
 型はResource Definitionに対するCanonical URLであってその型も参照の対象となる。Referenceはhttp://hl7.org/fhir/StructureDefinition/に対する相対URLである。たとえば、"Patient"はhttp://hl7.org/fhir/StructureDefinition/Patientへの参照である。絶対URLは論理モデルにおいて、論理モデル内部での参照として飲み使用可能であり、Resourceに対しては指定できない。</t>
   </si>
   <si>
@@ -1879,21 +1879,12 @@
     <t>MedicationRequest.dosageInstruction.additionalInstruction.coding.system</t>
   </si>
   <si>
-    <t>JAMI 補足用法８桁コードを識別するURI。</t>
-  </si>
-  <si>
-    <t>JAMI 補足用法８桁コードを識別するURI</t>
-  </si>
-  <si>
     <t>URIはOID(urn:oid:....)やUUID(urn:uuid:....)であることもある。OIDやUUIDはHL7のOIDレジストリを参照していなければならない（SHALL)。そうでなければ、URIはHL7のFHIRのリストに挙げられている特別なURIであるか、用語集が明確な定義が参照されるべきである。</t>
   </si>
   <si>
     <t>記号の定義の根拠が明確である必要がある。</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.200250.2.2.20.22</t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstruction.additionalInstruction.coding.version</t>
   </si>
   <si>
@@ -1907,12 +1898,6 @@
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.additionalInstruction.coding.code</t>
-  </si>
-  <si>
-    <t>JAMI 補足用法コード</t>
-  </si>
-  <si>
-    <t>JAMI 補足用法コードを指定する。</t>
   </si>
   <si>
     <t>システム内の特定のコードを参照する必要がある。</t>
@@ -14523,7 +14508,7 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>88</v>
@@ -14541,23 +14526,23 @@
         <v>102</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>595</v>
+        <v>80</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>80</v>
@@ -14631,7 +14616,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -14657,13 +14642,13 @@
         <v>90</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -14745,7 +14730,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -14753,7 +14738,7 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>88</v>
@@ -14771,16 +14756,16 @@
         <v>108</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>601</v>
+        <v>344</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>602</v>
+        <v>345</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>80</v>
@@ -14861,7 +14846,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -14887,16 +14872,16 @@
         <v>90</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="M94" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>80</v>
@@ -14977,7 +14962,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -15009,10 +14994,10 @@
         <v>359</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>80</v>
@@ -15093,7 +15078,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -15128,7 +15113,7 @@
         <v>367</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>80</v>
@@ -15209,7 +15194,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -15235,10 +15220,10 @@
         <v>90</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="M97" t="s" s="2">
         <v>566</v>
@@ -15291,7 +15276,7 @@
         <v>80</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -15323,7 +15308,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -15346,19 +15331,19 @@
         <v>89</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>80</v>
@@ -15407,7 +15392,7 @@
         <v>80</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>78</v>
@@ -15428,7 +15413,7 @@
         <v>80</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>80</v>
@@ -15439,7 +15424,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -15551,7 +15536,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -15665,7 +15650,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -15781,7 +15766,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -15807,14 +15792,14 @@
         <v>429</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" t="s" s="2">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>80</v>
@@ -15863,7 +15848,7 @@
         <v>80</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>78</v>
@@ -15884,7 +15869,7 @@
         <v>80</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>80</v>
@@ -15895,7 +15880,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -15918,17 +15903,17 @@
         <v>89</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" t="s" s="2">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>80</v>
@@ -15977,7 +15962,7 @@
         <v>80</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>78</v>
@@ -15989,7 +15974,7 @@
         <v>80</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>80</v>
@@ -15998,7 +15983,7 @@
         <v>80</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>80</v>
@@ -16009,7 +15994,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -16121,7 +16106,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -16235,7 +16220,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -16258,13 +16243,13 @@
         <v>89</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -16313,7 +16298,7 @@
         <v>137</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>78</v>
@@ -16334,7 +16319,7 @@
         <v>80</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>80</v>
@@ -16345,10 +16330,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>80</v>
@@ -16370,13 +16355,13 @@
         <v>89</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -16427,7 +16412,7 @@
         <v>80</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>78</v>
@@ -16448,7 +16433,7 @@
         <v>80</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>80</v>
@@ -16459,7 +16444,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -16571,7 +16556,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -16685,7 +16670,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -16708,19 +16693,19 @@
         <v>89</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>80</v>
@@ -16769,7 +16754,7 @@
         <v>80</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>78</v>
@@ -16790,18 +16775,18 @@
         <v>80</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -16827,20 +16812,20 @@
         <v>108</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" t="s" s="2">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P111" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q111" t="s" s="2">
         <v>80</v>
@@ -16864,10 +16849,10 @@
         <v>182</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>80</v>
@@ -16885,7 +16870,7 @@
         <v>80</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>78</v>
@@ -16906,18 +16891,18 @@
         <v>80</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -16943,21 +16928,21 @@
         <v>90</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" t="s" s="2">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="R112" t="s" s="2">
         <v>80</v>
@@ -16999,7 +16984,7 @@
         <v>80</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>78</v>
@@ -17020,18 +17005,18 @@
         <v>80</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -17057,21 +17042,21 @@
         <v>102</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P113" s="2"/>
       <c r="Q113" t="s" s="2">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="R113" t="s" s="2">
         <v>80</v>
@@ -17113,7 +17098,7 @@
         <v>80</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>78</v>
@@ -17122,7 +17107,7 @@
         <v>88</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>100</v>
@@ -17134,18 +17119,18 @@
         <v>80</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -17171,23 +17156,23 @@
         <v>108</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" t="s" s="2">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="R114" t="s" s="2">
         <v>80</v>
@@ -17229,7 +17214,7 @@
         <v>80</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>78</v>
@@ -17250,18 +17235,18 @@
         <v>80</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -17284,19 +17269,19 @@
         <v>89</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>80</v>
@@ -17345,7 +17330,7 @@
         <v>80</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>78</v>
@@ -17366,7 +17351,7 @@
         <v>80</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>80</v>
@@ -17377,7 +17362,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -17400,16 +17385,16 @@
         <v>89</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
@@ -17459,7 +17444,7 @@
         <v>80</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>78</v>
@@ -17480,7 +17465,7 @@
         <v>80</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>80</v>
@@ -17491,7 +17476,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -17514,19 +17499,19 @@
         <v>89</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>80</v>
@@ -17575,7 +17560,7 @@
         <v>80</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>78</v>
@@ -17596,7 +17581,7 @@
         <v>80</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>80</v>
@@ -17607,7 +17592,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -17630,19 +17615,19 @@
         <v>89</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>80</v>
@@ -17691,7 +17676,7 @@
         <v>80</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>78</v>
@@ -17712,7 +17697,7 @@
         <v>80</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>80</v>
@@ -17723,7 +17708,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -17749,10 +17734,10 @@
         <v>108</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="M119" t="s" s="2">
         <v>566</v>
@@ -17784,10 +17769,10 @@
         <v>182</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="Z119" t="s" s="2">
         <v>80</v>
@@ -17805,7 +17790,7 @@
         <v>80</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>78</v>
@@ -17826,7 +17811,7 @@
         <v>80</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>80</v>
@@ -17837,7 +17822,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -17860,23 +17845,23 @@
         <v>89</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P120" t="s" s="2">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="Q120" t="s" s="2">
         <v>80</v>
@@ -17921,7 +17906,7 @@
         <v>80</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>78</v>
@@ -17942,7 +17927,7 @@
         <v>80</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>80</v>
@@ -17953,7 +17938,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -17976,16 +17961,16 @@
         <v>89</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
@@ -18035,7 +18020,7 @@
         <v>80</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>78</v>
@@ -18056,7 +18041,7 @@
         <v>80</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>80</v>
@@ -18067,7 +18052,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -18090,16 +18075,16 @@
         <v>89</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
@@ -18149,7 +18134,7 @@
         <v>80</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>78</v>
@@ -18170,7 +18155,7 @@
         <v>80</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>80</v>
@@ -18181,7 +18166,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -18204,16 +18189,16 @@
         <v>89</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
@@ -18263,7 +18248,7 @@
         <v>80</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>78</v>
@@ -18284,7 +18269,7 @@
         <v>80</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>80</v>
@@ -18295,7 +18280,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -18321,10 +18306,10 @@
         <v>108</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="M124" t="s" s="2">
         <v>566</v>
@@ -18356,10 +18341,10 @@
         <v>182</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>80</v>
@@ -18377,7 +18362,7 @@
         <v>80</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>78</v>
@@ -18398,7 +18383,7 @@
         <v>80</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>80</v>
@@ -18409,7 +18394,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -18435,13 +18420,13 @@
         <v>108</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -18471,7 +18456,7 @@
       </c>
       <c r="X125" s="2"/>
       <c r="Y125" t="s" s="2">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>80</v>
@@ -18489,7 +18474,7 @@
         <v>80</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>78</v>
@@ -18521,7 +18506,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -18544,16 +18529,16 @@
         <v>89</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -18603,7 +18588,7 @@
         <v>80</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>78</v>
@@ -18635,7 +18620,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -18661,16 +18646,16 @@
         <v>108</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>80</v>
@@ -18698,10 +18683,10 @@
         <v>182</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>80</v>
@@ -18719,7 +18704,7 @@
         <v>80</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>78</v>
@@ -18740,7 +18725,7 @@
         <v>80</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>80</v>
@@ -18751,7 +18736,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -18774,16 +18759,16 @@
         <v>89</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -18833,7 +18818,7 @@
         <v>80</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>78</v>
@@ -18854,7 +18839,7 @@
         <v>80</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>80</v>
@@ -18865,7 +18850,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -18891,13 +18876,13 @@
         <v>188</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
@@ -18926,10 +18911,10 @@
         <v>112</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>80</v>
@@ -18947,7 +18932,7 @@
         <v>80</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>78</v>
@@ -18968,7 +18953,7 @@
         <v>80</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>80</v>
@@ -18979,7 +18964,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -19005,13 +18990,13 @@
         <v>288</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
@@ -19061,7 +19046,7 @@
         <v>80</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>78</v>
@@ -19082,18 +19067,18 @@
         <v>80</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -19119,16 +19104,16 @@
         <v>188</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>80</v>
@@ -19156,10 +19141,10 @@
         <v>255</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>80</v>
@@ -19177,7 +19162,7 @@
         <v>80</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>78</v>
@@ -19198,18 +19183,18 @@
         <v>80</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>803</v>
+        <v>798</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -19321,7 +19306,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -19435,7 +19420,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -19461,10 +19446,10 @@
         <v>318</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="M134" t="s" s="2">
         <v>586</v>
@@ -19551,7 +19536,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -19663,7 +19648,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -19777,7 +19762,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -19803,23 +19788,23 @@
         <v>102</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P137" s="2"/>
       <c r="Q137" t="s" s="2">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="R137" t="s" s="2">
         <v>80</v>
@@ -19893,7 +19878,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -19919,13 +19904,13 @@
         <v>90</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -20007,7 +19992,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -20033,16 +20018,16 @@
         <v>108</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="M139" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>80</v>
@@ -20123,7 +20108,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -20149,16 +20134,16 @@
         <v>90</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="M140" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>80</v>
@@ -20239,7 +20224,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -20271,10 +20256,10 @@
         <v>359</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>80</v>
@@ -20355,7 +20340,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -20390,7 +20375,7 @@
         <v>367</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>80</v>
@@ -20471,7 +20456,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -20497,16 +20482,16 @@
         <v>188</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>80</v>
@@ -20534,10 +20519,10 @@
         <v>255</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>80</v>
@@ -20555,7 +20540,7 @@
         <v>80</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>78</v>
@@ -20576,18 +20561,18 @@
         <v>80</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>831</v>
+        <v>826</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -20699,7 +20684,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -20813,7 +20798,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -20839,10 +20824,10 @@
         <v>318</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="M146" t="s" s="2">
         <v>586</v>
@@ -20929,7 +20914,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -21041,7 +21026,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -21155,7 +21140,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -21181,23 +21166,23 @@
         <v>102</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P149" s="2"/>
       <c r="Q149" t="s" s="2">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="R149" t="s" s="2">
         <v>80</v>
@@ -21271,7 +21256,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -21297,13 +21282,13 @@
         <v>90</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
@@ -21385,7 +21370,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -21411,16 +21396,16 @@
         <v>108</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="M151" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>80</v>
@@ -21501,7 +21486,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -21527,16 +21512,16 @@
         <v>90</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="M152" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>80</v>
@@ -21617,7 +21602,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -21649,10 +21634,10 @@
         <v>359</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>80</v>
@@ -21733,7 +21718,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -21759,16 +21744,16 @@
         <v>90</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="M154" t="s" s="2">
         <v>367</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>80</v>
@@ -21849,7 +21834,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -21875,16 +21860,16 @@
         <v>188</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>80</v>
@@ -21912,10 +21897,10 @@
         <v>255</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="Z155" t="s" s="2">
         <v>80</v>
@@ -21933,7 +21918,7 @@
         <v>80</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>78</v>
@@ -21954,18 +21939,18 @@
         <v>80</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN155" t="s" s="2">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -22077,7 +22062,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -22191,7 +22176,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -22217,13 +22202,13 @@
         <v>318</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="N158" t="s" s="2">
         <v>322</v>
@@ -22305,10 +22290,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="C159" t="s" s="2">
         <v>80</v>
@@ -22333,10 +22318,10 @@
         <v>318</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="M159" t="s" s="2">
         <v>586</v>
@@ -22371,7 +22356,7 @@
       </c>
       <c r="X159" s="2"/>
       <c r="Y159" t="s" s="2">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="Z159" t="s" s="2">
         <v>80</v>
@@ -22421,7 +22406,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -22533,7 +22518,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -22647,7 +22632,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -22673,23 +22658,23 @@
         <v>102</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P162" s="2"/>
       <c r="Q162" t="s" s="2">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="R162" t="s" s="2">
         <v>80</v>
@@ -22763,7 +22748,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -22789,13 +22774,13 @@
         <v>90</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
@@ -22877,7 +22862,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -22903,16 +22888,16 @@
         <v>108</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="M164" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>80</v>
@@ -22993,7 +22978,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -23019,16 +23004,16 @@
         <v>90</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>80</v>
@@ -23109,7 +23094,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -23141,10 +23126,10 @@
         <v>359</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>80</v>
@@ -23225,10 +23210,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="C167" t="s" s="2">
         <v>80</v>
@@ -23253,10 +23238,10 @@
         <v>318</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="M167" t="s" s="2">
         <v>586</v>
@@ -23291,7 +23276,7 @@
       </c>
       <c r="X167" s="2"/>
       <c r="Y167" t="s" s="2">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>80</v>
@@ -23341,7 +23326,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -23453,7 +23438,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -23567,7 +23552,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -23593,23 +23578,23 @@
         <v>102</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P170" s="2"/>
       <c r="Q170" t="s" s="2">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="R170" t="s" s="2">
         <v>80</v>
@@ -23683,7 +23668,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -23709,13 +23694,13 @@
         <v>90</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
@@ -23797,7 +23782,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -23823,16 +23808,16 @@
         <v>108</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="M172" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>80</v>
@@ -23913,7 +23898,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -23939,16 +23924,16 @@
         <v>90</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="M173" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>80</v>
@@ -24029,7 +24014,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -24061,10 +24046,10 @@
         <v>359</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>80</v>
@@ -24145,7 +24130,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -24171,16 +24156,16 @@
         <v>90</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="M175" t="s" s="2">
         <v>367</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>80</v>
@@ -24261,7 +24246,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -24284,13 +24269,13 @@
         <v>89</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
@@ -24341,7 +24326,7 @@
         <v>80</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>78</v>
@@ -24368,12 +24353,12 @@
         <v>80</v>
       </c>
       <c r="AN176" t="s" s="2">
-        <v>902</v>
+        <v>897</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -24485,7 +24470,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -24599,7 +24584,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -24625,14 +24610,14 @@
         <v>188</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>80</v>
@@ -24660,10 +24645,10 @@
         <v>255</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="Z179" t="s" s="2">
         <v>80</v>
@@ -24681,7 +24666,7 @@
         <v>80</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>78</v>
@@ -24708,12 +24693,12 @@
         <v>80</v>
       </c>
       <c r="AN179" t="s" s="2">
-        <v>912</v>
+        <v>907</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -24736,19 +24721,19 @@
         <v>80</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>80</v>
@@ -24797,7 +24782,7 @@
         <v>80</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>78</v>
@@ -24809,7 +24794,7 @@
         <v>144</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="AJ180" t="s" s="2">
         <v>80</v>
@@ -24818,18 +24803,18 @@
         <v>80</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="AM180" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN180" t="s" s="2">
-        <v>921</v>
+        <v>916</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -24941,7 +24926,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -25055,7 +25040,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -25078,19 +25063,19 @@
         <v>89</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>80</v>
@@ -25139,7 +25124,7 @@
         <v>80</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>78</v>
@@ -25160,18 +25145,18 @@
         <v>80</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN183" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -25197,20 +25182,20 @@
         <v>108</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="M184" s="2"/>
       <c r="N184" t="s" s="2">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P184" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q184" t="s" s="2">
         <v>80</v>
@@ -25234,10 +25219,10 @@
         <v>182</v>
       </c>
       <c r="X184" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y184" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z184" t="s" s="2">
         <v>80</v>
@@ -25255,7 +25240,7 @@
         <v>80</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>78</v>
@@ -25276,18 +25261,18 @@
         <v>80</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM184" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN184" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -25313,14 +25298,14 @@
         <v>90</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="M185" s="2"/>
       <c r="N185" t="s" s="2">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>80</v>
@@ -25369,7 +25354,7 @@
         <v>80</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>78</v>
@@ -25390,18 +25375,18 @@
         <v>80</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM185" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN185" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -25427,14 +25412,14 @@
         <v>102</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="M186" s="2"/>
       <c r="N186" t="s" s="2">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>80</v>
@@ -25463,7 +25448,7 @@
       </c>
       <c r="X186" s="2"/>
       <c r="Y186" t="s" s="2">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="Z186" t="s" s="2">
         <v>80</v>
@@ -25481,7 +25466,7 @@
         <v>80</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>78</v>
@@ -25490,7 +25475,7 @@
         <v>88</v>
       </c>
       <c r="AH186" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI186" t="s" s="2">
         <v>100</v>
@@ -25502,18 +25487,18 @@
         <v>80</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM186" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN186" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -25539,16 +25524,16 @@
         <v>108</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>80</v>
@@ -25597,7 +25582,7 @@
         <v>80</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>78</v>
@@ -25618,18 +25603,18 @@
         <v>80</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM187" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN187" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -25652,19 +25637,19 @@
         <v>89</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>80</v>
@@ -25713,7 +25698,7 @@
         <v>80</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>78</v>
@@ -25734,18 +25719,18 @@
         <v>80</v>
       </c>
       <c r="AL188" t="s" s="2">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="AM188" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN188" t="s" s="2">
-        <v>944</v>
+        <v>939</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -25857,7 +25842,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -25971,7 +25956,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -25994,13 +25979,13 @@
         <v>89</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="M191" s="2"/>
       <c r="N191" s="2"/>
@@ -26051,7 +26036,7 @@
         <v>80</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>78</v>
@@ -26072,7 +26057,7 @@
         <v>80</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>80</v>
@@ -26083,7 +26068,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -26195,7 +26180,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -26309,7 +26294,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -26332,19 +26317,19 @@
         <v>89</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>80</v>
@@ -26393,7 +26378,7 @@
         <v>80</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>78</v>
@@ -26414,18 +26399,18 @@
         <v>80</v>
       </c>
       <c r="AL194" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM194" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN194" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -26451,20 +26436,20 @@
         <v>108</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" t="s" s="2">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P195" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q195" t="s" s="2">
         <v>80</v>
@@ -26488,10 +26473,10 @@
         <v>182</v>
       </c>
       <c r="X195" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y195" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z195" t="s" s="2">
         <v>80</v>
@@ -26509,7 +26494,7 @@
         <v>80</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>78</v>
@@ -26530,18 +26515,18 @@
         <v>80</v>
       </c>
       <c r="AL195" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM195" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN195" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -26567,14 +26552,14 @@
         <v>90</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" t="s" s="2">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>80</v>
@@ -26623,7 +26608,7 @@
         <v>80</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>78</v>
@@ -26644,18 +26629,18 @@
         <v>80</v>
       </c>
       <c r="AL196" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM196" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN196" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -26681,14 +26666,14 @@
         <v>102</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" t="s" s="2">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>80</v>
@@ -26717,7 +26702,7 @@
       </c>
       <c r="X197" s="2"/>
       <c r="Y197" t="s" s="2">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="Z197" t="s" s="2">
         <v>80</v>
@@ -26735,7 +26720,7 @@
         <v>80</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>78</v>
@@ -26744,7 +26729,7 @@
         <v>88</v>
       </c>
       <c r="AH197" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI197" t="s" s="2">
         <v>100</v>
@@ -26756,18 +26741,18 @@
         <v>80</v>
       </c>
       <c r="AL197" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM197" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN197" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -26793,16 +26778,16 @@
         <v>108</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>80</v>
@@ -26851,7 +26836,7 @@
         <v>80</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>78</v>
@@ -26872,18 +26857,18 @@
         <v>80</v>
       </c>
       <c r="AL198" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM198" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN198" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -26906,13 +26891,13 @@
         <v>89</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
@@ -26963,7 +26948,7 @@
         <v>80</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>78</v>
@@ -26984,7 +26969,7 @@
         <v>80</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="AM199" t="s" s="2">
         <v>80</v>
@@ -26995,7 +26980,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -27018,19 +27003,19 @@
         <v>89</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>80</v>
@@ -27079,7 +27064,7 @@
         <v>80</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>78</v>
@@ -27100,18 +27085,18 @@
         <v>80</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="AM200" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN200" t="s" s="2">
-        <v>973</v>
+        <v>968</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -27223,7 +27208,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -27337,7 +27322,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -27360,16 +27345,16 @@
         <v>89</v>
       </c>
       <c r="J203" t="s" s="2">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" t="s" s="2">
@@ -27419,7 +27404,7 @@
         <v>80</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>78</v>
@@ -27440,7 +27425,7 @@
         <v>80</v>
       </c>
       <c r="AL203" t="s" s="2">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="AM203" t="s" s="2">
         <v>80</v>
@@ -27451,7 +27436,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -27563,7 +27548,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -27677,7 +27662,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -27700,19 +27685,19 @@
         <v>89</v>
       </c>
       <c r="J206" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>80</v>
@@ -27761,7 +27746,7 @@
         <v>80</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>78</v>
@@ -27782,18 +27767,18 @@
         <v>80</v>
       </c>
       <c r="AL206" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM206" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN206" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -27819,22 +27804,22 @@
         <v>108</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="M207" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="O207" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P207" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q207" t="s" s="2">
         <v>80</v>
@@ -27858,10 +27843,10 @@
         <v>182</v>
       </c>
       <c r="X207" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y207" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z207" t="s" s="2">
         <v>80</v>
@@ -27879,7 +27864,7 @@
         <v>80</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>78</v>
@@ -27900,18 +27885,18 @@
         <v>80</v>
       </c>
       <c r="AL207" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM207" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN207" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -27937,16 +27922,16 @@
         <v>90</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="M208" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>80</v>
@@ -27995,7 +27980,7 @@
         <v>80</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>78</v>
@@ -28016,18 +28001,18 @@
         <v>80</v>
       </c>
       <c r="AL208" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM208" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN208" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -28053,16 +28038,16 @@
         <v>102</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="M209" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>80</v>
@@ -28091,7 +28076,7 @@
       </c>
       <c r="X209" s="2"/>
       <c r="Y209" t="s" s="2">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="Z209" t="s" s="2">
         <v>80</v>
@@ -28109,7 +28094,7 @@
         <v>80</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>78</v>
@@ -28118,7 +28103,7 @@
         <v>88</v>
       </c>
       <c r="AH209" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI209" t="s" s="2">
         <v>100</v>
@@ -28130,18 +28115,18 @@
         <v>80</v>
       </c>
       <c r="AL209" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM209" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN209" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -28167,16 +28152,16 @@
         <v>108</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>80</v>
@@ -28225,7 +28210,7 @@
         <v>80</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>78</v>
@@ -28246,18 +28231,18 @@
         <v>80</v>
       </c>
       <c r="AL210" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM210" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN210" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -28280,16 +28265,16 @@
         <v>89</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="N211" s="2"/>
       <c r="O211" t="s" s="2">
@@ -28339,7 +28324,7 @@
         <v>80</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>78</v>
@@ -28360,7 +28345,7 @@
         <v>80</v>
       </c>
       <c r="AL211" t="s" s="2">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="AM211" t="s" s="2">
         <v>80</v>
@@ -28371,7 +28356,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -28483,7 +28468,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -28597,7 +28582,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -28620,19 +28605,19 @@
         <v>89</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>80</v>
@@ -28681,7 +28666,7 @@
         <v>80</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>78</v>
@@ -28702,18 +28687,18 @@
         <v>80</v>
       </c>
       <c r="AL214" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM214" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN214" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -28739,22 +28724,22 @@
         <v>108</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="M215" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="O215" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P215" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q215" t="s" s="2">
         <v>80</v>
@@ -28778,10 +28763,10 @@
         <v>182</v>
       </c>
       <c r="X215" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y215" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z215" t="s" s="2">
         <v>80</v>
@@ -28799,7 +28784,7 @@
         <v>80</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>78</v>
@@ -28820,18 +28805,18 @@
         <v>80</v>
       </c>
       <c r="AL215" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM215" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN215" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -28857,16 +28842,16 @@
         <v>90</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="M216" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>80</v>
@@ -28915,7 +28900,7 @@
         <v>80</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>78</v>
@@ -28936,18 +28921,18 @@
         <v>80</v>
       </c>
       <c r="AL216" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM216" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN216" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -28973,16 +28958,16 @@
         <v>102</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="M217" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="O217" t="s" s="2">
         <v>80</v>
@@ -29011,7 +28996,7 @@
       </c>
       <c r="X217" s="2"/>
       <c r="Y217" t="s" s="2">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="Z217" t="s" s="2">
         <v>80</v>
@@ -29029,7 +29014,7 @@
         <v>80</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>78</v>
@@ -29038,7 +29023,7 @@
         <v>88</v>
       </c>
       <c r="AH217" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI217" t="s" s="2">
         <v>100</v>
@@ -29050,18 +29035,18 @@
         <v>80</v>
       </c>
       <c r="AL217" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM217" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN217" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -29087,16 +29072,16 @@
         <v>108</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>80</v>
@@ -29145,7 +29130,7 @@
         <v>80</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>78</v>
@@ -29166,18 +29151,18 @@
         <v>80</v>
       </c>
       <c r="AL218" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM218" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN218" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -29200,19 +29185,19 @@
         <v>89</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>80</v>
@@ -29261,7 +29246,7 @@
         <v>80</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>78</v>
@@ -29282,7 +29267,7 @@
         <v>80</v>
       </c>
       <c r="AL219" t="s" s="2">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="AM219" t="s" s="2">
         <v>80</v>
@@ -29293,7 +29278,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -29405,7 +29390,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -29519,7 +29504,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -29542,19 +29527,19 @@
         <v>89</v>
       </c>
       <c r="J222" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O222" t="s" s="2">
         <v>80</v>
@@ -29603,7 +29588,7 @@
         <v>80</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>78</v>
@@ -29624,18 +29609,18 @@
         <v>80</v>
       </c>
       <c r="AL222" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM222" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN222" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -29661,22 +29646,22 @@
         <v>108</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="M223" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P223" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q223" t="s" s="2">
         <v>80</v>
@@ -29700,10 +29685,10 @@
         <v>182</v>
       </c>
       <c r="X223" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y223" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z223" t="s" s="2">
         <v>80</v>
@@ -29721,7 +29706,7 @@
         <v>80</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>78</v>
@@ -29742,18 +29727,18 @@
         <v>80</v>
       </c>
       <c r="AL223" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM223" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN223" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -29779,16 +29764,16 @@
         <v>90</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="M224" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="O224" t="s" s="2">
         <v>80</v>
@@ -29837,7 +29822,7 @@
         <v>80</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF224" t="s" s="2">
         <v>78</v>
@@ -29858,18 +29843,18 @@
         <v>80</v>
       </c>
       <c r="AL224" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM224" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN224" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -29895,16 +29880,16 @@
         <v>102</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="M225" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="O225" t="s" s="2">
         <v>80</v>
@@ -29933,7 +29918,7 @@
       </c>
       <c r="X225" s="2"/>
       <c r="Y225" t="s" s="2">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="Z225" t="s" s="2">
         <v>80</v>
@@ -29951,7 +29936,7 @@
         <v>80</v>
       </c>
       <c r="AE225" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF225" t="s" s="2">
         <v>78</v>
@@ -29960,7 +29945,7 @@
         <v>88</v>
       </c>
       <c r="AH225" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI225" t="s" s="2">
         <v>100</v>
@@ -29972,18 +29957,18 @@
         <v>80</v>
       </c>
       <c r="AL225" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM225" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN225" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -30009,16 +29994,16 @@
         <v>108</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>80</v>
@@ -30067,7 +30052,7 @@
         <v>80</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>78</v>
@@ -30088,18 +30073,18 @@
         <v>80</v>
       </c>
       <c r="AL226" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM226" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN226" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -30122,19 +30107,19 @@
         <v>89</v>
       </c>
       <c r="J227" t="s" s="2">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>80</v>
@@ -30183,7 +30168,7 @@
         <v>80</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>78</v>
@@ -30204,7 +30189,7 @@
         <v>80</v>
       </c>
       <c r="AL227" t="s" s="2">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="AM227" t="s" s="2">
         <v>80</v>
@@ -30215,7 +30200,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -30327,7 +30312,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -30441,7 +30426,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -30464,19 +30449,19 @@
         <v>89</v>
       </c>
       <c r="J230" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O230" t="s" s="2">
         <v>80</v>
@@ -30525,7 +30510,7 @@
         <v>80</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>78</v>
@@ -30546,18 +30531,18 @@
         <v>80</v>
       </c>
       <c r="AL230" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM230" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN230" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -30583,22 +30568,22 @@
         <v>108</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="M231" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="O231" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P231" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q231" t="s" s="2">
         <v>80</v>
@@ -30622,10 +30607,10 @@
         <v>182</v>
       </c>
       <c r="X231" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y231" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z231" t="s" s="2">
         <v>80</v>
@@ -30643,7 +30628,7 @@
         <v>80</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF231" t="s" s="2">
         <v>78</v>
@@ -30664,18 +30649,18 @@
         <v>80</v>
       </c>
       <c r="AL231" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM231" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN231" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -30701,16 +30686,16 @@
         <v>90</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="M232" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="O232" t="s" s="2">
         <v>80</v>
@@ -30759,7 +30744,7 @@
         <v>80</v>
       </c>
       <c r="AE232" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF232" t="s" s="2">
         <v>78</v>
@@ -30780,18 +30765,18 @@
         <v>80</v>
       </c>
       <c r="AL232" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM232" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN232" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -30817,16 +30802,16 @@
         <v>102</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="M233" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="O233" t="s" s="2">
         <v>80</v>
@@ -30855,7 +30840,7 @@
       </c>
       <c r="X233" s="2"/>
       <c r="Y233" t="s" s="2">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="Z233" t="s" s="2">
         <v>80</v>
@@ -30873,7 +30858,7 @@
         <v>80</v>
       </c>
       <c r="AE233" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF233" t="s" s="2">
         <v>78</v>
@@ -30882,7 +30867,7 @@
         <v>88</v>
       </c>
       <c r="AH233" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI233" t="s" s="2">
         <v>100</v>
@@ -30894,18 +30879,18 @@
         <v>80</v>
       </c>
       <c r="AL233" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM233" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN233" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -30931,16 +30916,16 @@
         <v>108</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>80</v>
@@ -30989,7 +30974,7 @@
         <v>80</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>78</v>
@@ -31010,18 +30995,18 @@
         <v>80</v>
       </c>
       <c r="AL234" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM234" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN234" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -31044,13 +31029,13 @@
         <v>80</v>
       </c>
       <c r="J235" t="s" s="2">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="M235" s="2"/>
       <c r="N235" s="2"/>
@@ -31101,7 +31086,7 @@
         <v>80</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>78</v>
@@ -31119,10 +31104,10 @@
         <v>80</v>
       </c>
       <c r="AK235" t="s" s="2">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="AL235" t="s" s="2">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="AM235" t="s" s="2">
         <v>80</v>
@@ -31133,7 +31118,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -31245,7 +31230,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -31355,10 +31340,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="C238" t="s" s="2">
         <v>80</v>
@@ -31380,13 +31365,13 @@
         <v>80</v>
       </c>
       <c r="J238" t="s" s="2">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="M238" s="2"/>
       <c r="N238" s="2"/>
@@ -31469,7 +31454,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -31581,7 +31566,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -31693,7 +31678,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -31719,13 +31704,13 @@
         <v>102</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="N241" s="2"/>
       <c r="O241" t="s" s="2">
@@ -31733,7 +31718,7 @@
       </c>
       <c r="P241" s="2"/>
       <c r="Q241" t="s" s="2">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="R241" t="s" s="2">
         <v>80</v>
@@ -31775,7 +31760,7 @@
         <v>80</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>88</v>
@@ -31807,7 +31792,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -31833,10 +31818,10 @@
         <v>188</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="M242" s="2"/>
       <c r="N242" s="2"/>
@@ -31885,7 +31870,7 @@
         <v>306</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>78</v>
@@ -31917,10 +31902,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="C243" t="s" s="2">
         <v>80</v>
@@ -31945,10 +31930,10 @@
         <v>188</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="M243" s="2"/>
       <c r="N243" s="2"/>
@@ -31999,7 +31984,7 @@
         <v>80</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>78</v>
@@ -32031,7 +32016,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -32143,7 +32128,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -32257,7 +32242,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -32283,13 +32268,13 @@
         <v>318</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="N246" t="s" s="2">
         <v>322</v>
@@ -32321,7 +32306,7 @@
       </c>
       <c r="X246" s="2"/>
       <c r="Y246" t="s" s="2">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="Z246" t="s" s="2">
         <v>80</v>
@@ -32371,7 +32356,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -32397,13 +32382,13 @@
         <v>90</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="N247" t="s" s="2">
         <v>368</v>
@@ -32487,10 +32472,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="C248" t="s" s="2">
         <v>80</v>
@@ -32512,13 +32497,13 @@
         <v>80</v>
       </c>
       <c r="J248" t="s" s="2">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="M248" s="2"/>
       <c r="N248" s="2"/>
@@ -32601,7 +32586,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -32717,7 +32702,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -32740,16 +32725,16 @@
         <v>80</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="N250" s="2"/>
       <c r="O250" t="s" s="2">
@@ -32799,7 +32784,7 @@
         <v>80</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>78</v>
@@ -32820,7 +32805,7 @@
         <v>80</v>
       </c>
       <c r="AL250" t="s" s="2">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="AM250" t="s" s="2">
         <v>80</v>
@@ -32831,7 +32816,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -32943,7 +32928,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -33057,7 +33042,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -33173,7 +33158,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -33196,16 +33181,16 @@
         <v>80</v>
       </c>
       <c r="J254" t="s" s="2">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="N254" s="2"/>
       <c r="O254" t="s" s="2">
@@ -33255,7 +33240,7 @@
         <v>80</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>78</v>
@@ -33276,7 +33261,7 @@
         <v>80</v>
       </c>
       <c r="AL254" t="s" s="2">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="AM254" t="s" s="2">
         <v>80</v>
@@ -33287,7 +33272,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -33399,7 +33384,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -33513,7 +33498,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -33536,19 +33521,19 @@
         <v>89</v>
       </c>
       <c r="J257" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="N257" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O257" t="s" s="2">
         <v>80</v>
@@ -33597,7 +33582,7 @@
         <v>80</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF257" t="s" s="2">
         <v>78</v>
@@ -33618,18 +33603,18 @@
         <v>80</v>
       </c>
       <c r="AL257" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM257" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN257" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -33655,22 +33640,22 @@
         <v>108</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="M258" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N258" t="s" s="2">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="O258" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P258" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q258" t="s" s="2">
         <v>80</v>
@@ -33694,10 +33679,10 @@
         <v>182</v>
       </c>
       <c r="X258" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y258" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z258" t="s" s="2">
         <v>80</v>
@@ -33715,7 +33700,7 @@
         <v>80</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>78</v>
@@ -33736,18 +33721,18 @@
         <v>80</v>
       </c>
       <c r="AL258" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM258" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN258" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -33773,16 +33758,16 @@
         <v>90</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="M259" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N259" t="s" s="2">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="O259" t="s" s="2">
         <v>80</v>
@@ -33831,7 +33816,7 @@
         <v>80</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>78</v>
@@ -33852,18 +33837,18 @@
         <v>80</v>
       </c>
       <c r="AL259" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM259" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN259" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -33889,16 +33874,16 @@
         <v>102</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="M260" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>80</v>
@@ -33927,7 +33912,7 @@
       </c>
       <c r="X260" s="2"/>
       <c r="Y260" t="s" s="2">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="Z260" t="s" s="2">
         <v>80</v>
@@ -33945,7 +33930,7 @@
         <v>80</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>78</v>
@@ -33954,7 +33939,7 @@
         <v>88</v>
       </c>
       <c r="AH260" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI260" t="s" s="2">
         <v>100</v>
@@ -33966,18 +33951,18 @@
         <v>80</v>
       </c>
       <c r="AL260" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM260" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN260" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -34003,16 +33988,16 @@
         <v>108</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>80</v>
@@ -34061,7 +34046,7 @@
         <v>80</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>78</v>
@@ -34082,18 +34067,18 @@
         <v>80</v>
       </c>
       <c r="AL261" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM261" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN261" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -34116,16 +34101,16 @@
         <v>80</v>
       </c>
       <c r="J262" t="s" s="2">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="N262" s="2"/>
       <c r="O262" t="s" s="2">
@@ -34175,7 +34160,7 @@
         <v>80</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>78</v>
@@ -34196,7 +34181,7 @@
         <v>80</v>
       </c>
       <c r="AL262" t="s" s="2">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="AM262" t="s" s="2">
         <v>80</v>
@@ -34207,7 +34192,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -34319,7 +34304,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -34433,7 +34418,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -34456,19 +34441,19 @@
         <v>89</v>
       </c>
       <c r="J265" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="N265" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O265" t="s" s="2">
         <v>80</v>
@@ -34517,7 +34502,7 @@
         <v>80</v>
       </c>
       <c r="AE265" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF265" t="s" s="2">
         <v>78</v>
@@ -34538,18 +34523,18 @@
         <v>80</v>
       </c>
       <c r="AL265" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM265" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN265" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -34575,22 +34560,22 @@
         <v>108</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="M266" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N266" t="s" s="2">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P266" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q266" t="s" s="2">
         <v>80</v>
@@ -34614,10 +34599,10 @@
         <v>182</v>
       </c>
       <c r="X266" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y266" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z266" t="s" s="2">
         <v>80</v>
@@ -34635,7 +34620,7 @@
         <v>80</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>78</v>
@@ -34656,18 +34641,18 @@
         <v>80</v>
       </c>
       <c r="AL266" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM266" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN266" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -34693,16 +34678,16 @@
         <v>90</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="M267" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N267" t="s" s="2">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="O267" t="s" s="2">
         <v>80</v>
@@ -34751,7 +34736,7 @@
         <v>80</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>78</v>
@@ -34772,18 +34757,18 @@
         <v>80</v>
       </c>
       <c r="AL267" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM267" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN267" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -34809,16 +34794,16 @@
         <v>102</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="M268" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N268" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="O268" t="s" s="2">
         <v>80</v>
@@ -34867,7 +34852,7 @@
         <v>80</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>78</v>
@@ -34876,7 +34861,7 @@
         <v>88</v>
       </c>
       <c r="AH268" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI268" t="s" s="2">
         <v>100</v>
@@ -34888,18 +34873,18 @@
         <v>80</v>
       </c>
       <c r="AL268" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM268" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN268" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -34925,16 +34910,16 @@
         <v>108</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>80</v>
@@ -34983,7 +34968,7 @@
         <v>80</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>78</v>
@@ -35004,18 +34989,18 @@
         <v>80</v>
       </c>
       <c r="AL269" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM269" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN269" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -35038,16 +35023,16 @@
         <v>80</v>
       </c>
       <c r="J270" t="s" s="2">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="N270" s="2"/>
       <c r="O270" t="s" s="2">
@@ -35097,7 +35082,7 @@
         <v>80</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>78</v>
@@ -35118,7 +35103,7 @@
         <v>80</v>
       </c>
       <c r="AL270" t="s" s="2">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="AM270" t="s" s="2">
         <v>80</v>
@@ -35129,7 +35114,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -35241,7 +35226,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -35355,7 +35340,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -35378,19 +35363,19 @@
         <v>89</v>
       </c>
       <c r="J273" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="N273" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>80</v>
@@ -35439,7 +35424,7 @@
         <v>80</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>78</v>
@@ -35460,18 +35445,18 @@
         <v>80</v>
       </c>
       <c r="AL273" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM273" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN273" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -35497,22 +35482,22 @@
         <v>108</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="M274" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N274" t="s" s="2">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="O274" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P274" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q274" t="s" s="2">
         <v>80</v>
@@ -35536,10 +35521,10 @@
         <v>182</v>
       </c>
       <c r="X274" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y274" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z274" t="s" s="2">
         <v>80</v>
@@ -35557,7 +35542,7 @@
         <v>80</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>78</v>
@@ -35578,18 +35563,18 @@
         <v>80</v>
       </c>
       <c r="AL274" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM274" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN274" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -35615,16 +35600,16 @@
         <v>90</v>
       </c>
       <c r="K275" t="s" s="2">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="M275" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N275" t="s" s="2">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="O275" t="s" s="2">
         <v>80</v>
@@ -35673,7 +35658,7 @@
         <v>80</v>
       </c>
       <c r="AE275" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF275" t="s" s="2">
         <v>78</v>
@@ -35694,18 +35679,18 @@
         <v>80</v>
       </c>
       <c r="AL275" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM275" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN275" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -35731,16 +35716,16 @@
         <v>102</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="M276" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N276" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="O276" t="s" s="2">
         <v>80</v>
@@ -35789,7 +35774,7 @@
         <v>80</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF276" t="s" s="2">
         <v>78</v>
@@ -35798,7 +35783,7 @@
         <v>88</v>
       </c>
       <c r="AH276" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI276" t="s" s="2">
         <v>100</v>
@@ -35810,18 +35795,18 @@
         <v>80</v>
       </c>
       <c r="AL276" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM276" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN276" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -35847,16 +35832,16 @@
         <v>108</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="O277" t="s" s="2">
         <v>80</v>
@@ -35905,7 +35890,7 @@
         <v>80</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>78</v>
@@ -35926,18 +35911,18 @@
         <v>80</v>
       </c>
       <c r="AL277" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM277" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN277" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -35963,16 +35948,16 @@
         <v>217</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>80</v>
@@ -36021,7 +36006,7 @@
         <v>80</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>78</v>
@@ -36039,10 +36024,10 @@
         <v>80</v>
       </c>
       <c r="AK278" t="s" s="2">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="AL278" t="s" s="2">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="AM278" t="s" s="2">
         <v>80</v>
@@ -36053,7 +36038,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -36165,7 +36150,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -36279,7 +36264,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -36305,13 +36290,13 @@
         <v>429</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="N281" s="2"/>
       <c r="O281" t="s" s="2">
@@ -36361,7 +36346,7 @@
         <v>80</v>
       </c>
       <c r="AE281" t="s" s="2">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="AF281" t="s" s="2">
         <v>78</v>
@@ -36370,7 +36355,7 @@
         <v>88</v>
       </c>
       <c r="AH281" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="AI281" t="s" s="2">
         <v>100</v>
@@ -36382,18 +36367,18 @@
         <v>80</v>
       </c>
       <c r="AL281" t="s" s="2">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="AM281" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN281" t="s" s="2">
-        <v>1130</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -36419,20 +36404,20 @@
         <v>429</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="N282" s="2"/>
       <c r="O282" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P282" t="s" s="2">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="Q282" t="s" s="2">
         <v>80</v>
@@ -36477,7 +36462,7 @@
         <v>80</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>78</v>
@@ -36486,7 +36471,7 @@
         <v>88</v>
       </c>
       <c r="AH282" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="AI282" t="s" s="2">
         <v>100</v>
@@ -36498,18 +36483,18 @@
         <v>80</v>
       </c>
       <c r="AL282" t="s" s="2">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="AM282" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN282" t="s" s="2">
-        <v>1138</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -36532,16 +36517,16 @@
         <v>80</v>
       </c>
       <c r="J283" t="s" s="2">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="N283" s="2"/>
       <c r="O283" t="s" s="2">
@@ -36591,7 +36576,7 @@
         <v>80</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>78</v>
@@ -36609,21 +36594,21 @@
         <v>80</v>
       </c>
       <c r="AK283" t="s" s="2">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="AL283" t="s" s="2">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="AM283" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN283" t="s" s="2">
-        <v>1145</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -36646,16 +36631,16 @@
         <v>80</v>
       </c>
       <c r="J284" t="s" s="2">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="N284" s="2"/>
       <c r="O284" t="s" s="2">
@@ -36705,7 +36690,7 @@
         <v>80</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>78</v>
@@ -36723,21 +36708,21 @@
         <v>80</v>
       </c>
       <c r="AK284" t="s" s="2">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="AL284" t="s" s="2">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="AM284" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN284" t="s" s="2">
-        <v>1151</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -36849,7 +36834,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -36963,7 +36948,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -36986,19 +36971,19 @@
         <v>89</v>
       </c>
       <c r="J287" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="N287" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O287" t="s" s="2">
         <v>80</v>
@@ -37047,7 +37032,7 @@
         <v>80</v>
       </c>
       <c r="AE287" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF287" t="s" s="2">
         <v>78</v>
@@ -37068,18 +37053,18 @@
         <v>80</v>
       </c>
       <c r="AL287" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM287" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN287" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -37105,22 +37090,22 @@
         <v>108</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="M288" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N288" t="s" s="2">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="O288" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P288" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q288" t="s" s="2">
         <v>80</v>
@@ -37144,10 +37129,10 @@
         <v>182</v>
       </c>
       <c r="X288" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y288" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z288" t="s" s="2">
         <v>80</v>
@@ -37165,7 +37150,7 @@
         <v>80</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>78</v>
@@ -37186,18 +37171,18 @@
         <v>80</v>
       </c>
       <c r="AL288" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM288" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN288" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -37223,16 +37208,16 @@
         <v>90</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="M289" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N289" t="s" s="2">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="O289" t="s" s="2">
         <v>80</v>
@@ -37281,7 +37266,7 @@
         <v>80</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>78</v>
@@ -37302,18 +37287,18 @@
         <v>80</v>
       </c>
       <c r="AL289" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM289" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN289" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -37339,16 +37324,16 @@
         <v>102</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="M290" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N290" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="O290" t="s" s="2">
         <v>80</v>
@@ -37358,7 +37343,7 @@
         <v>80</v>
       </c>
       <c r="R290" t="s" s="2">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="S290" t="s" s="2">
         <v>80</v>
@@ -37397,7 +37382,7 @@
         <v>80</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>78</v>
@@ -37406,7 +37391,7 @@
         <v>88</v>
       </c>
       <c r="AH290" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI290" t="s" s="2">
         <v>100</v>
@@ -37418,18 +37403,18 @@
         <v>80</v>
       </c>
       <c r="AL290" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM290" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN290" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -37455,16 +37440,16 @@
         <v>108</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="N291" t="s" s="2">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="O291" t="s" s="2">
         <v>80</v>
@@ -37513,7 +37498,7 @@
         <v>80</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF291" t="s" s="2">
         <v>78</v>
@@ -37534,18 +37519,18 @@
         <v>80</v>
       </c>
       <c r="AL291" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM291" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN291" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -37568,16 +37553,16 @@
         <v>80</v>
       </c>
       <c r="J292" t="s" s="2">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="N292" s="2"/>
       <c r="O292" t="s" s="2">
@@ -37627,7 +37612,7 @@
         <v>80</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>78</v>
@@ -37645,10 +37630,10 @@
         <v>80</v>
       </c>
       <c r="AK292" t="s" s="2">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="AL292" t="s" s="2">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="AM292" t="s" s="2">
         <v>80</v>
@@ -37659,7 +37644,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -37771,7 +37756,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -37885,7 +37870,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -37908,19 +37893,19 @@
         <v>89</v>
       </c>
       <c r="J295" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="N295" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O295" t="s" s="2">
         <v>80</v>
@@ -37969,7 +37954,7 @@
         <v>80</v>
       </c>
       <c r="AE295" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF295" t="s" s="2">
         <v>78</v>
@@ -37990,18 +37975,18 @@
         <v>80</v>
       </c>
       <c r="AL295" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM295" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN295" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -38027,22 +38012,22 @@
         <v>108</v>
       </c>
       <c r="K296" t="s" s="2">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="M296" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N296" t="s" s="2">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="O296" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P296" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q296" t="s" s="2">
         <v>80</v>
@@ -38066,10 +38051,10 @@
         <v>182</v>
       </c>
       <c r="X296" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y296" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z296" t="s" s="2">
         <v>80</v>
@@ -38087,7 +38072,7 @@
         <v>80</v>
       </c>
       <c r="AE296" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF296" t="s" s="2">
         <v>78</v>
@@ -38108,18 +38093,18 @@
         <v>80</v>
       </c>
       <c r="AL296" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM296" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN296" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -38145,23 +38130,23 @@
         <v>90</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="M297" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N297" t="s" s="2">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="O297" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P297" s="2"/>
       <c r="Q297" t="s" s="2">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="R297" t="s" s="2">
         <v>80</v>
@@ -38203,7 +38188,7 @@
         <v>80</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF297" t="s" s="2">
         <v>78</v>
@@ -38224,18 +38209,18 @@
         <v>80</v>
       </c>
       <c r="AL297" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM297" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN297" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -38261,23 +38246,23 @@
         <v>102</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="M298" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N298" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="O298" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P298" s="2"/>
       <c r="Q298" t="s" s="2">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="R298" t="s" s="2">
         <v>80</v>
@@ -38319,7 +38304,7 @@
         <v>80</v>
       </c>
       <c r="AE298" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF298" t="s" s="2">
         <v>78</v>
@@ -38328,7 +38313,7 @@
         <v>88</v>
       </c>
       <c r="AH298" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI298" t="s" s="2">
         <v>100</v>
@@ -38340,18 +38325,18 @@
         <v>80</v>
       </c>
       <c r="AL298" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM298" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN298" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -38377,23 +38362,23 @@
         <v>108</v>
       </c>
       <c r="K299" t="s" s="2">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="N299" t="s" s="2">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="O299" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P299" s="2"/>
       <c r="Q299" t="s" s="2">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="R299" t="s" s="2">
         <v>80</v>
@@ -38435,7 +38420,7 @@
         <v>80</v>
       </c>
       <c r="AE299" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF299" t="s" s="2">
         <v>78</v>
@@ -38456,18 +38441,18 @@
         <v>80</v>
       </c>
       <c r="AL299" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM299" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN299" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -38493,10 +38478,10 @@
         <v>224</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="M300" t="s" s="2">
         <v>425</v>
@@ -38549,7 +38534,7 @@
         <v>80</v>
       </c>
       <c r="AE300" t="s" s="2">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="AF300" t="s" s="2">
         <v>78</v>
@@ -38570,7 +38555,7 @@
         <v>80</v>
       </c>
       <c r="AL300" t="s" s="2">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="AM300" t="s" s="2">
         <v>462</v>
@@ -38581,7 +38566,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -38604,13 +38589,13 @@
         <v>80</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="M301" s="2"/>
       <c r="N301" s="2"/>
@@ -38661,7 +38646,7 @@
         <v>80</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>78</v>
@@ -38679,10 +38664,10 @@
         <v>80</v>
       </c>
       <c r="AK301" t="s" s="2">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="AL301" t="s" s="2">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="AM301" t="s" s="2">
         <v>80</v>
@@ -38693,7 +38678,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -38805,7 +38790,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -38919,7 +38904,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -39035,7 +39020,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -39061,13 +39046,13 @@
         <v>188</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="N305" s="2"/>
       <c r="O305" t="s" s="2">
@@ -39097,7 +39082,7 @@
       </c>
       <c r="X305" s="2"/>
       <c r="Y305" t="s" s="2">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="Z305" t="s" s="2">
         <v>80</v>
@@ -39115,7 +39100,7 @@
         <v>80</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="AF305" t="s" s="2">
         <v>88</v>
@@ -39133,21 +39118,21 @@
         <v>80</v>
       </c>
       <c r="AK305" t="s" s="2">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="AL305" t="s" s="2">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="AM305" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN305" t="s" s="2">
-        <v>1201</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -39259,7 +39244,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -39373,7 +39358,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -39399,13 +39384,13 @@
         <v>318</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="M308" t="s" s="2">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="N308" t="s" s="2">
         <v>322</v>
@@ -39489,7 +39474,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -39601,7 +39586,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -39715,7 +39700,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -39741,10 +39726,10 @@
         <v>102</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="M311" t="s" s="2">
         <v>331</v>
@@ -39757,7 +39742,7 @@
       </c>
       <c r="P311" s="2"/>
       <c r="Q311" t="s" s="2">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="R311" t="s" s="2">
         <v>80</v>
@@ -39831,7 +39816,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -39945,7 +39930,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -39971,10 +39956,10 @@
         <v>108</v>
       </c>
       <c r="K313" t="s" s="2">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="M313" s="2"/>
       <c r="N313" t="s" s="2">
@@ -40059,7 +40044,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -40085,10 +40070,10 @@
         <v>90</v>
       </c>
       <c r="K314" t="s" s="2">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="M314" s="2"/>
       <c r="N314" t="s" s="2">
@@ -40173,7 +40158,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -40199,13 +40184,13 @@
         <v>288</v>
       </c>
       <c r="K315" t="s" s="2">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="M315" t="s" s="2">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="N315" t="s" s="2">
         <v>360</v>
@@ -40289,7 +40274,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -40315,13 +40300,13 @@
         <v>90</v>
       </c>
       <c r="K316" t="s" s="2">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="M316" t="s" s="2">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="N316" t="s" s="2">
         <v>368</v>
@@ -40405,7 +40390,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -40431,13 +40416,13 @@
         <v>188</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="N317" s="2"/>
       <c r="O317" t="s" s="2">
@@ -40466,10 +40451,10 @@
         <v>255</v>
       </c>
       <c r="X317" t="s" s="2">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="Y317" t="s" s="2">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="Z317" t="s" s="2">
         <v>80</v>
@@ -40487,7 +40472,7 @@
         <v>80</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>78</v>
@@ -40505,21 +40490,21 @@
         <v>80</v>
       </c>
       <c r="AK317" t="s" s="2">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="AL317" t="s" s="2">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="AM317" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN317" t="s" s="2">
-        <v>1231</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -40542,13 +40527,13 @@
         <v>80</v>
       </c>
       <c r="J318" t="s" s="2">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="K318" t="s" s="2">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="M318" t="s" s="2">
         <v>425</v>
@@ -40601,7 +40586,7 @@
         <v>80</v>
       </c>
       <c r="AE318" t="s" s="2">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="AF318" t="s" s="2">
         <v>78</v>
@@ -40616,13 +40601,13 @@
         <v>100</v>
       </c>
       <c r="AJ318" t="s" s="2">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="AK318" t="s" s="2">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="AL318" t="s" s="2">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="AM318" t="s" s="2">
         <v>80</v>
@@ -40633,11 +40618,11 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" t="s" s="2">
@@ -40656,16 +40641,16 @@
         <v>80</v>
       </c>
       <c r="J319" t="s" s="2">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="N319" s="2"/>
       <c r="O319" t="s" s="2">
@@ -40715,7 +40700,7 @@
         <v>80</v>
       </c>
       <c r="AE319" t="s" s="2">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="AF319" t="s" s="2">
         <v>78</v>
@@ -40736,7 +40721,7 @@
         <v>80</v>
       </c>
       <c r="AL319" t="s" s="2">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="AM319" t="s" s="2">
         <v>80</v>
@@ -40747,7 +40732,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -40770,16 +40755,16 @@
         <v>80</v>
       </c>
       <c r="J320" t="s" s="2">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="K320" t="s" s="2">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="M320" t="s" s="2">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="N320" s="2"/>
       <c r="O320" t="s" s="2">
@@ -40829,7 +40814,7 @@
         <v>80</v>
       </c>
       <c r="AE320" t="s" s="2">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="AF320" t="s" s="2">
         <v>78</v>
@@ -40844,13 +40829,13 @@
         <v>100</v>
       </c>
       <c r="AJ320" t="s" s="2">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="AK320" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL320" t="s" s="2">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="AM320" t="s" s="2">
         <v>80</v>
